--- a/Data Models Specifications/Data_Models_v46.xlsx
+++ b/Data Models Specifications/Data_Models_v46.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="http://intranet.gamingcommission.gov.gr/dity/OnLineGaming/Shared Documents/Μοντέλα δεδομένων/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.angelou\Desktop\Interwetten-Agwnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0956D95D-A9D9-447C-81F3-23F640AA05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293AEBAD-46B7-4FD8-9FA5-BE0CE65AE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangesFromDataModelsv45" sheetId="38" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="828">
   <si>
     <t>A/A</t>
   </si>
@@ -4676,6 +4676,9 @@
   </si>
   <si>
     <t>Max Length of GameID elements changed to 200 characters</t>
+  </si>
+  <si>
+    <t>Max Length of PaytableID element changed to 255 characters</t>
   </si>
 </sst>
 </file>
@@ -5337,18 +5340,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.53515625" customWidth="1"/>
-    <col min="4" max="4" width="18.53515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>755</v>
       </c>
@@ -5362,7 +5365,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -5376,11 +5379,21 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="D3" s="45"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C3" t="s">
+        <v>827</v>
+      </c>
+      <c r="D3" s="45">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="D4" s="45"/>
     </row>
@@ -5403,20 +5416,20 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.69140625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" customWidth="1"/>
     <col min="3" max="3" width="105" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.53515625" customWidth="1"/>
-    <col min="6" max="6" width="32.84375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -5425,14 +5438,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -5441,7 +5454,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -5451,10 +5464,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -5474,7 +5487,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -5492,7 +5505,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -5510,7 +5523,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -5528,7 +5541,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -5545,7 +5558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -5563,7 +5576,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="306" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -5581,7 +5594,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -5598,7 +5611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -5616,7 +5629,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -5634,7 +5647,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -5652,7 +5665,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -5670,7 +5683,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -5688,7 +5701,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -5723,20 +5736,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="123.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="123.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.53515625" customWidth="1"/>
-    <col min="3" max="3" width="121.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1"/>
+    <col min="3" max="3" width="121.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="20.3828125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -5745,7 +5758,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -5754,7 +5767,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -5763,7 +5776,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -5773,10 +5786,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -5796,7 +5809,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -5814,7 +5827,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -5832,7 +5845,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -5850,7 +5863,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -5868,7 +5881,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -5886,7 +5899,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -5904,7 +5917,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -5922,7 +5935,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -5939,7 +5952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -5956,7 +5969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -5974,7 +5987,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -5992,7 +6005,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="320.60000000000002" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -6010,7 +6023,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -6028,7 +6041,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -6045,7 +6058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -6063,7 +6076,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -6098,20 +6111,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="61" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="61" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.3828125" customWidth="1"/>
-    <col min="3" max="3" width="123.15234375" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="123.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -6120,7 +6133,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -6129,7 +6142,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>197</v>
@@ -6139,7 +6152,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -6149,10 +6162,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6185,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -6190,7 +6203,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -6208,7 +6221,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -6226,7 +6239,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -6244,7 +6257,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -6262,7 +6275,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -6280,7 +6293,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -6298,7 +6311,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -6316,7 +6329,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -6334,7 +6347,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -6352,7 +6365,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -6369,7 +6382,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -6387,7 +6400,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -6405,7 +6418,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -6423,7 +6436,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -6441,7 +6454,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -6459,7 +6472,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -6477,7 +6490,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -6495,7 +6508,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -6513,7 +6526,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -6531,7 +6544,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -6549,7 +6562,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -6567,7 +6580,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -6585,7 +6598,7 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>24</v>
       </c>
@@ -6603,7 +6616,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>25</v>
       </c>
@@ -6621,7 +6634,7 @@
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>26</v>
       </c>
@@ -6639,7 +6652,7 @@
       </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>27</v>
       </c>
@@ -6657,7 +6670,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>28</v>
       </c>
@@ -6675,7 +6688,7 @@
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>29</v>
       </c>
@@ -6693,7 +6706,7 @@
       </c>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>30</v>
       </c>
@@ -6711,7 +6724,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>31</v>
       </c>
@@ -6729,7 +6742,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>32</v>
       </c>
@@ -6747,7 +6760,7 @@
       </c>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>33</v>
       </c>
@@ -6765,7 +6778,7 @@
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>34</v>
       </c>
@@ -6783,7 +6796,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>35</v>
       </c>
@@ -6801,7 +6814,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>36</v>
       </c>
@@ -6819,7 +6832,7 @@
       </c>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>37</v>
       </c>
@@ -6854,20 +6867,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="97.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="97.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.3046875" customWidth="1"/>
-    <col min="3" max="3" width="96.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -6876,14 +6889,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -6892,7 +6905,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -6902,10 +6915,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -6925,7 +6938,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -6943,7 +6956,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -6961,7 +6974,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -6979,7 +6992,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -6997,7 +7010,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -7015,7 +7028,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -7033,7 +7046,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -7051,7 +7064,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -7069,7 +7082,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -7087,7 +7100,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -7105,7 +7118,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>10</v>
       </c>
@@ -7123,7 +7136,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>11</v>
       </c>
@@ -7141,7 +7154,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>12</v>
       </c>
@@ -7159,7 +7172,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>13</v>
       </c>
@@ -7177,7 +7190,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>14</v>
       </c>
@@ -7195,7 +7208,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>15</v>
       </c>
@@ -7213,7 +7226,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>16</v>
       </c>
@@ -7231,7 +7244,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>17</v>
       </c>
@@ -7249,7 +7262,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>18</v>
       </c>
@@ -7268,7 +7281,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>19</v>
       </c>
@@ -7286,7 +7299,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>20</v>
       </c>
@@ -7304,7 +7317,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>21</v>
       </c>
@@ -7322,7 +7335,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>22</v>
       </c>
@@ -7340,7 +7353,7 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>23</v>
       </c>
@@ -7358,7 +7371,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>24</v>
       </c>
@@ -7393,20 +7406,20 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="78.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.69140625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="103" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.3828125" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -7415,7 +7428,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -7424,7 +7437,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -7433,7 +7446,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -7443,10 +7456,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -7466,7 +7479,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -7484,7 +7497,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -7501,7 +7514,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -7519,7 +7532,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -7537,7 +7550,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -7554,7 +7567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -7572,7 +7585,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="291.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -7590,7 +7603,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -7608,7 +7621,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -7626,7 +7639,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -7644,7 +7657,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -7662,7 +7675,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -7680,7 +7693,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -7698,7 +7711,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -7716,7 +7729,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -7734,7 +7747,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -7752,7 +7765,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -7770,7 +7783,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -7788,7 +7801,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -7806,7 +7819,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -7824,7 +7837,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -7842,7 +7855,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -7860,7 +7873,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -7878,7 +7891,7 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>24</v>
       </c>
@@ -7896,7 +7909,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>25</v>
       </c>
@@ -7914,7 +7927,7 @@
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>26</v>
       </c>
@@ -7932,7 +7945,7 @@
       </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>27</v>
       </c>
@@ -7950,7 +7963,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>28</v>
       </c>
@@ -7985,20 +7998,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="68.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="68.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.53515625" customWidth="1"/>
-    <col min="3" max="3" width="104.3828125" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.3828125" customWidth="1"/>
-    <col min="6" max="6" width="32.84375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="104.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -8007,7 +8020,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="10" t="s">
         <v>199</v>
@@ -8017,7 +8030,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>197</v>
@@ -8027,7 +8040,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -8037,10 +8050,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -8060,7 +8073,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -8078,7 +8091,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -8096,7 +8109,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -8114,7 +8127,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -8132,7 +8145,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -8150,7 +8163,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -8168,7 +8181,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -8186,7 +8199,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -8204,7 +8217,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -8222,7 +8235,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -8240,7 +8253,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -8257,7 +8270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -8274,7 +8287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -8291,7 +8304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -8308,7 +8321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -8326,7 +8339,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -8361,20 +8374,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="80.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="80.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="114.69140625" customWidth="1"/>
-    <col min="4" max="4" width="33.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="114.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -8383,14 +8396,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -8399,7 +8412,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -8407,10 +8420,10 @@
       <c r="C5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -8430,7 +8443,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -8448,7 +8461,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -8466,7 +8479,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -8484,7 +8497,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -8502,7 +8515,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -8520,7 +8533,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -8538,7 +8551,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -8556,7 +8569,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -8574,7 +8587,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -8592,7 +8605,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -8610,7 +8623,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -8628,7 +8641,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -8647,7 +8660,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -8683,20 +8696,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" customWidth="1"/>
-    <col min="2" max="2" width="40.53515625" customWidth="1"/>
-    <col min="3" max="3" width="107.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="107.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -8705,7 +8718,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -8714,7 +8727,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -8723,7 +8736,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
@@ -8732,10 +8745,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -8755,7 +8768,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -8773,7 +8786,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -8791,7 +8804,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -8809,7 +8822,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -8827,7 +8840,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -8845,7 +8858,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -8863,7 +8876,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -8881,7 +8894,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -8899,7 +8912,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -8917,7 +8930,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -8935,7 +8948,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -8953,7 +8966,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -8971,7 +8984,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -8989,7 +9002,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -9007,7 +9020,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -9025,7 +9038,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -9060,17 +9073,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="77" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.15234375" customWidth="1"/>
-    <col min="3" max="3" width="90.84375" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="90.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -9079,14 +9092,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>197</v>
@@ -9096,17 +9109,17 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -9126,7 +9139,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -9144,7 +9157,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -9162,7 +9175,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -9180,7 +9193,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -9198,7 +9211,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -9216,7 +9229,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -9234,7 +9247,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -9252,7 +9265,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -9270,7 +9283,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -9288,7 +9301,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -9306,7 +9319,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -9324,7 +9337,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -9342,7 +9355,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -9360,7 +9373,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -9394,20 +9407,20 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="76" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="76" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.15234375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="132" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.69140625" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -9416,14 +9429,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -9432,7 +9445,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -9442,10 +9455,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -9465,7 +9478,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -9483,7 +9496,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -9501,7 +9514,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -9519,7 +9532,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -9537,7 +9550,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="378.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -9555,7 +9568,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -9573,7 +9586,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -9591,7 +9604,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -9609,7 +9622,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -9627,7 +9640,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -9645,7 +9658,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -9663,7 +9676,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -9681,7 +9694,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -9699,7 +9712,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -9717,7 +9730,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -9751,17 +9764,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="39.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.84375" customWidth="1"/>
-    <col min="3" max="3" width="93.53515625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -9769,7 +9782,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -9777,7 +9790,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -9785,7 +9798,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
@@ -9793,7 +9806,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -9810,7 +9823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -9827,7 +9840,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -9844,7 +9857,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -9861,7 +9874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -9878,7 +9891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -9895,7 +9908,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -9912,7 +9925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -9929,7 +9942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -9946,7 +9959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="15" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -9964,7 +9977,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" ht="174.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -9982,7 +9995,7 @@
       </c>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="15" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -10000,7 +10013,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -10017,7 +10030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -10034,7 +10047,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -10051,7 +10064,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="174.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>211</v>
@@ -10067,7 +10080,7 @@
       </c>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>58</v>
@@ -10083,7 +10096,7 @@
       </c>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>15</v>
       </c>
@@ -10100,7 +10113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>16</v>
       </c>
@@ -10118,7 +10131,7 @@
       </c>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>17</v>
       </c>
@@ -10136,7 +10149,7 @@
       </c>
       <c r="F26" s="49"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>18</v>
       </c>
@@ -10153,7 +10166,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -10171,7 +10184,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>20</v>
       </c>
@@ -10188,7 +10201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>21</v>
       </c>
@@ -10222,20 +10235,20 @@
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="76" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="76" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.53515625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="132" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.69140625" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -10244,14 +10257,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -10260,7 +10273,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -10268,10 +10281,10 @@
       <c r="C5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -10291,7 +10304,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -10309,7 +10322,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -10327,7 +10340,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -10345,7 +10358,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -10363,7 +10376,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="378.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -10381,7 +10394,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -10399,7 +10412,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -10417,7 +10430,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -10435,7 +10448,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -10452,7 +10465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -10470,7 +10483,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -10488,7 +10501,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -10506,7 +10519,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -10524,7 +10537,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -10542,7 +10555,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -10577,20 +10590,20 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="97.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="97.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.3046875" customWidth="1"/>
-    <col min="3" max="3" width="96.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -10599,14 +10612,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -10615,7 +10628,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -10625,10 +10638,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -10648,7 +10661,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -10666,7 +10679,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -10684,7 +10697,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -10702,7 +10715,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -10720,7 +10733,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -10738,7 +10751,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -10756,7 +10769,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -10774,7 +10787,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -10792,7 +10805,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -10809,7 +10822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -10827,7 +10840,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -10845,7 +10858,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -10863,7 +10876,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -10881,7 +10894,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -10899,7 +10912,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -10917,7 +10930,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -10935,7 +10948,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -10953,7 +10966,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -10971,7 +10984,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -10989,7 +11002,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -11007,7 +11020,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -11025,7 +11038,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -11061,20 +11074,20 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="81.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.3828125" customWidth="1"/>
-    <col min="3" max="3" width="117.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.69140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="117.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -11083,7 +11096,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -11092,7 +11105,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>197</v>
@@ -11102,17 +11115,17 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -11132,7 +11145,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -11150,7 +11163,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -11168,7 +11181,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -11186,7 +11199,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -11204,7 +11217,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -11222,7 +11235,7 @@
       </c>
       <c r="F12" s="46"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -11240,7 +11253,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -11258,7 +11271,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -11276,7 +11289,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="349.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -11294,7 +11307,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -11312,7 +11325,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -11329,7 +11342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -11346,7 +11359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -11364,7 +11377,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -11382,7 +11395,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -11400,7 +11413,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -11418,7 +11431,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -11436,7 +11449,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -11453,7 +11466,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -11471,7 +11484,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -11489,7 +11502,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -11507,7 +11520,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -11525,7 +11538,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -11543,7 +11556,7 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>24</v>
       </c>
@@ -11561,7 +11574,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>25</v>
       </c>
@@ -11579,7 +11592,7 @@
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>26</v>
       </c>
@@ -11615,20 +11628,20 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="49.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="49.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.84375" customWidth="1"/>
-    <col min="3" max="3" width="108.69140625" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="108.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -11637,14 +11650,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -11653,17 +11666,17 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -11683,7 +11696,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -11701,7 +11714,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -11719,7 +11732,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -11737,7 +11750,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -11755,7 +11768,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -11773,7 +11786,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -11791,7 +11804,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -11809,7 +11822,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -11827,7 +11840,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -11845,7 +11858,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -11863,7 +11876,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -11881,7 +11894,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -11899,7 +11912,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -11917,7 +11930,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -11935,7 +11948,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -11953,7 +11966,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -11971,7 +11984,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -11989,7 +12002,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -12007,7 +12020,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="364.3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -12024,7 +12037,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
@@ -12041,7 +12054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="174.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -12058,7 +12071,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -12076,7 +12089,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -12094,7 +12107,7 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31"/>
       <c r="F31" s="12"/>
     </row>
@@ -12115,20 +12128,20 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="81.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.3828125" customWidth="1"/>
-    <col min="3" max="3" width="117.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="117.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -12137,14 +12150,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>197</v>
@@ -12154,17 +12167,17 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -12184,7 +12197,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -12202,7 +12215,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -12220,7 +12233,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -12238,7 +12251,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -12256,7 +12269,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -12274,7 +12287,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -12292,7 +12305,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -12310,7 +12323,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -12345,20 +12358,20 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="49.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="49.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.69140625" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.53515625" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -12367,14 +12380,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -12383,17 +12396,17 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -12413,7 +12426,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -12431,7 +12444,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -12449,7 +12462,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -12467,7 +12480,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -12485,7 +12498,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -12503,7 +12516,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -12521,7 +12534,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -12539,7 +12552,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -12557,7 +12570,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="349.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -12574,7 +12587,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -12591,7 +12604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -12608,7 +12621,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -12626,7 +12639,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20"/>
       <c r="F20" s="12"/>
     </row>
@@ -12647,22 +12660,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="107.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="107.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" customWidth="1"/>
-    <col min="2" max="2" width="61.15234375" customWidth="1"/>
-    <col min="3" max="3" width="112.84375" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="112.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="17" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.84375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="58.3046875" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="16"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -12674,14 +12687,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -12690,7 +12703,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>198</v>
       </c>
@@ -12699,11 +12712,11 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
@@ -12723,7 +12736,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -12741,7 +12754,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -12759,7 +12772,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -12777,7 +12790,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -12795,7 +12808,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -12813,7 +12826,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -12831,7 +12844,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -12849,7 +12862,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -12867,7 +12880,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>8</v>
       </c>
@@ -12885,7 +12898,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>9</v>
       </c>
@@ -12903,7 +12916,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>10</v>
       </c>
@@ -12921,7 +12934,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>11</v>
       </c>
@@ -12939,7 +12952,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>12</v>
       </c>
@@ -12973,22 +12986,22 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="107.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="107.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" customWidth="1"/>
-    <col min="2" max="2" width="61.15234375" customWidth="1"/>
-    <col min="3" max="3" width="112.84375" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="112.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="17" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.84375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="58.3046875" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="16"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -13000,7 +13013,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -13009,7 +13022,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -13018,7 +13031,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
@@ -13027,11 +13040,11 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
@@ -13051,7 +13064,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -13069,7 +13082,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -13087,7 +13100,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -13105,7 +13118,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -13123,7 +13136,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -13141,7 +13154,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -13159,7 +13172,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -13177,7 +13190,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -13195,7 +13208,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -13213,7 +13226,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -13231,7 +13244,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -13249,7 +13262,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -13267,7 +13280,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -13285,7 +13298,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -13303,7 +13316,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -13322,7 +13335,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -13340,7 +13353,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -13359,7 +13372,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -13377,7 +13390,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="260.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -13395,7 +13408,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -13413,7 +13426,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -13446,16 +13459,16 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="19.15234375" customWidth="1"/>
-    <col min="4" max="4" width="23.3046875" customWidth="1"/>
-    <col min="6" max="6" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>572</v>
       </c>
@@ -13475,7 +13488,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -13483,7 +13496,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>574</v>
       </c>
@@ -13499,7 +13512,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>574</v>
       </c>
@@ -13515,7 +13528,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>574</v>
       </c>
@@ -13529,7 +13542,7 @@
       </c>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -13537,7 +13550,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>579</v>
       </c>
@@ -13555,7 +13568,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -13563,7 +13576,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>581</v>
       </c>
@@ -13581,7 +13594,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -13589,7 +13602,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>583</v>
       </c>
@@ -13607,19 +13620,19 @@
         <v>637</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="334.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="334.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>650</v>
       </c>
@@ -13638,7 +13651,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>681</v>
       </c>
@@ -13657,7 +13670,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>682</v>
       </c>
@@ -13676,7 +13689,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="335.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>651</v>
       </c>
@@ -13695,31 +13708,31 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -13740,17 +13753,17 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" customWidth="1"/>
-    <col min="2" max="2" width="19.3828125" customWidth="1"/>
-    <col min="3" max="3" width="22.15234375" customWidth="1"/>
-    <col min="4" max="4" width="14.15234375" customWidth="1"/>
-    <col min="5" max="5" width="16.15234375" customWidth="1"/>
-    <col min="6" max="6" width="9.53515625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
@@ -13774,7 +13787,7 @@
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -13796,7 +13809,7 @@
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -13816,7 +13829,7 @@
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>15</v>
       </c>
@@ -13840,7 +13853,7 @@
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>1</v>
       </c>
@@ -13862,7 +13875,7 @@
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
         <v>1</v>
       </c>
@@ -13884,7 +13897,7 @@
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>765</v>
       </c>
@@ -13917,17 +13930,17 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.84375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.84375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="52.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="27.3046875" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="27.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -13936,7 +13949,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -13945,7 +13958,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -13954,7 +13967,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -13964,7 +13977,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -13981,7 +13994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -13998,7 +14011,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -14015,7 +14028,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -14032,7 +14045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -14049,7 +14062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -14066,7 +14079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -14083,7 +14096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -14100,7 +14113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -14117,7 +14130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -14134,7 +14147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="166.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -14151,7 +14164,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -14168,7 +14181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -14185,7 +14198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -14202,7 +14215,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -14219,7 +14232,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -14236,7 +14249,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -14253,7 +14266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -14270,7 +14283,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -14287,7 +14300,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -14304,7 +14317,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -14321,7 +14334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -14338,7 +14351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -14355,7 +14368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -14390,19 +14403,19 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="53.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="53.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="88.3046875" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -14410,7 +14423,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -14418,7 +14431,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -14426,7 +14439,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -14435,7 +14448,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -14452,7 +14465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -14469,7 +14482,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -14486,7 +14499,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -14503,7 +14516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -14520,7 +14533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -14537,7 +14550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -14554,7 +14567,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -14571,7 +14584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -14588,7 +14601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -14605,7 +14618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -14622,7 +14635,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -14639,7 +14652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -14656,7 +14669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -14673,7 +14686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="383.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="383.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -14690,7 +14703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="246.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -14707,7 +14720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -14724,7 +14737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -14741,7 +14754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -14758,7 +14771,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -14775,7 +14788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -14792,7 +14805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -14827,18 +14840,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="97.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="97.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.3046875" customWidth="1"/>
-    <col min="3" max="3" width="96.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>716</v>
       </c>
@@ -14846,7 +14859,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -14854,7 +14867,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -14862,7 +14875,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -14871,7 +14884,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -14888,7 +14901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -14905,7 +14918,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -14922,7 +14935,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -14939,7 +14952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -14956,7 +14969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -14973,7 +14986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -14990,7 +15003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -15007,7 +15020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="15" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>8</v>
       </c>
@@ -15025,7 +15038,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" ht="174.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -15043,7 +15056,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -15060,7 +15073,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -15077,7 +15090,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -15094,7 +15107,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -15111,7 +15124,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -15128,7 +15141,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -15145,7 +15158,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -15162,7 +15175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -15179,7 +15192,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -15196,7 +15209,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -15213,7 +15226,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -15230,7 +15243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -15247,7 +15260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -15264,7 +15277,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -15281,7 +15294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>24</v>
       </c>
@@ -15311,26 +15324,26 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="107.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="107.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" customWidth="1"/>
-    <col min="2" max="2" width="61.15234375" customWidth="1"/>
-    <col min="3" max="3" width="107.3828125" customWidth="1"/>
-    <col min="4" max="4" width="31.15234375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="107.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="17" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.84375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="58.3046875" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="16"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -15342,7 +15355,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -15351,7 +15364,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -15360,7 +15373,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -15370,10 +15383,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -15393,7 +15406,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -15411,7 +15424,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -15429,7 +15442,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -15447,7 +15460,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -15465,7 +15478,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="349.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -15483,7 +15496,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -15501,7 +15514,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -15519,7 +15532,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -15537,7 +15550,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="354.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="354.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -15555,7 +15568,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -15573,7 +15586,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -15591,7 +15604,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -15609,7 +15622,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -15628,7 +15641,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -15646,7 +15659,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -15664,7 +15677,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -15682,7 +15695,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -15700,7 +15713,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -15718,7 +15731,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -15736,7 +15749,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -15754,7 +15767,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="364.3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -15772,7 +15785,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>22</v>
       </c>
@@ -15790,7 +15803,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -15808,7 +15821,7 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>24</v>
       </c>
@@ -15822,11 +15835,11 @@
         <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>8</v>
+        <v>824</v>
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>25</v>
       </c>
@@ -15844,7 +15857,7 @@
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>26</v>
       </c>
@@ -15862,7 +15875,7 @@
       </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -15880,7 +15893,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>28</v>
       </c>
@@ -15898,7 +15911,7 @@
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>29</v>
       </c>
@@ -15933,20 +15946,20 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="97.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="97.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.3046875" customWidth="1"/>
-    <col min="3" max="3" width="96.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -15955,14 +15968,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -15971,7 +15984,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -15981,10 +15994,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -16004,7 +16017,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -16022,7 +16035,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -16040,7 +16053,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -16058,7 +16071,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -16076,7 +16089,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -16094,7 +16107,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -16112,7 +16125,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -16130,7 +16143,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -16148,7 +16161,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -16166,7 +16179,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -16184,7 +16197,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -16202,7 +16215,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -16220,7 +16233,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -16238,7 +16251,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -16256,7 +16269,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -16274,7 +16287,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -16292,7 +16305,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -16310,7 +16323,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -16328,7 +16341,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -16346,7 +16359,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -16364,7 +16377,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -16399,21 +16412,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="107.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="107.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.3046875" customWidth="1"/>
-    <col min="3" max="3" width="102.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="102.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.84375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="79.53515625" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="79.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -16422,7 +16435,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
@@ -16431,7 +16444,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -16440,7 +16453,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -16450,10 +16463,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -16473,7 +16486,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -16491,7 +16504,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -16509,7 +16522,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -16527,7 +16540,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -16545,7 +16558,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -16563,7 +16576,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="15" customFormat="1" ht="320.60000000000002" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="15" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -16581,7 +16594,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
@@ -16599,7 +16612,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>8</v>
       </c>
@@ -16617,7 +16630,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -16635,7 +16648,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="369.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="369.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -16653,7 +16666,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -16671,7 +16684,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -16689,7 +16702,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -16707,7 +16720,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -16725,7 +16738,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -16743,7 +16756,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -16762,7 +16775,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -16780,7 +16793,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -16798,7 +16811,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -16816,7 +16829,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
@@ -16834,7 +16847,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -16852,7 +16865,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -16870,7 +16883,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -16889,7 +16902,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>24</v>
       </c>
@@ -16907,7 +16920,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="364.3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -16925,7 +16938,7 @@
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>26</v>
       </c>
@@ -16943,7 +16956,7 @@
       </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -16961,7 +16974,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>28</v>
       </c>
@@ -16979,7 +16992,7 @@
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>29</v>
       </c>
@@ -17014,20 +17027,20 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="97.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="97.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.3046875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>368</v>
       </c>
@@ -17036,14 +17049,14 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
@@ -17052,7 +17065,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -17062,10 +17075,10 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -17085,7 +17098,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -17103,7 +17116,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -17121,7 +17134,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -17139,7 +17152,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -17157,7 +17170,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -17175,7 +17188,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -17193,7 +17206,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -17211,7 +17224,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -17229,7 +17242,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -17247,7 +17260,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -17265,7 +17278,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
@@ -17283,7 +17296,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>12</v>
       </c>
@@ -17301,7 +17314,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -17319,7 +17332,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -17337,7 +17350,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>15</v>
       </c>
@@ -17355,7 +17368,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -17373,7 +17386,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="175" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -17391,7 +17404,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -17409,7 +17422,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -17427,7 +17440,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -17445,7 +17458,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -17463,7 +17476,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -17481,7 +17494,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -17556,30 +17569,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <A_x002f_A xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d" xsi:nil="true"/>
-    <Order1 xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d" xsi:nil="true"/>
-    <SeoBrowserTitle xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d">HGCDOC-682867487-1320</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d">
-      <Url>http://intranet.gamingcommission.gov.gr/dity/OnLineGaming/_layouts/15/DocIdRedir.aspx?ID=HGCDOC-682867487-1320</Url>
-      <Description>HGCDOC-682867487-1320</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x010100260D6AA37D5CC44899E96C94BCFEA143" ma:contentTypeVersion="1" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="501288fcd4b033051002aaaa5cd44327">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bba06decedd1f1bbad66c614680dee36" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17767,6 +17756,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <A_x002f_A xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d" xsi:nil="true"/>
+    <Order1 xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d" xsi:nil="true"/>
+    <SeoBrowserTitle xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d">HGCDOC-682867487-1320</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d">
+      <Url>http://intranet.gamingcommission.gov.gr/dity/OnLineGaming/_layouts/15/DocIdRedir.aspx?ID=HGCDOC-682867487-1320</Url>
+      <Description>HGCDOC-682867487-1320</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C186DC2-A67C-4389-B3EA-2D3EC40F2A82}">
   <ds:schemaRefs>
@@ -17776,9 +17789,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20244BA8-8341-483F-831E-044522A542F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC49F26-9D07-4C73-9092-D944C8F7B4BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17801,20 +17825,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC49F26-9D07-4C73-9092-D944C8F7B4BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20244BA8-8341-483F-831E-044522A542F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7e72c0ec-f2d1-49c0-a0a7-0cfb3990429d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data Models Specifications/Data_Models_v46.xlsx
+++ b/Data Models Specifications/Data_Models_v46.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.angelou\Desktop\Interwetten-Agwnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293AEBAD-46B7-4FD8-9FA5-BE0CE65AE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2CDB7-445F-4B2C-B00D-FBCC7DB0421C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15325,7 +15325,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="107.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15817,7 +15817,7 @@
         <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F30" s="12"/>
     </row>
